--- a/Text/Musterdatei.xlsx
+++ b/Text/Musterdatei.xlsx
@@ -22,7 +22,7 @@
     <t>Kategorie</t>
   </si>
   <si>
-    <t>Bildunterschrift</t>
+    <t>Bildunterschrift / Titel</t>
   </si>
   <si>
     <t>Autor_in</t>
@@ -206,7 +206,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -423,7 +423,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -761,7 +761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="107.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="113.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -779,7 +779,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="7">
         <v>13</v>
       </c>
@@ -797,7 +797,7 @@
       </c>
       <c r="F3" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="7">
         <v>15</v>
       </c>
@@ -813,7 +813,7 @@
       </c>
       <c r="F4" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="7">
         <v>19</v>
       </c>
@@ -829,7 +829,7 @@
       </c>
       <c r="F5" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="7">
         <v>19</v>
       </c>
@@ -845,7 +845,7 @@
       </c>
       <c r="F6" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="7">
         <v>23</v>
       </c>
@@ -861,7 +861,7 @@
       </c>
       <c r="F7" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="7">
         <v>23</v>
       </c>
@@ -877,7 +877,7 @@
       </c>
       <c r="F8" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="7">
         <v>27</v>
       </c>
@@ -893,7 +893,7 @@
       </c>
       <c r="F9" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="7">
         <v>27</v>
       </c>
@@ -909,7 +909,7 @@
       </c>
       <c r="F10" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="7">
         <v>27</v>
       </c>
@@ -925,7 +925,7 @@
       </c>
       <c r="F11" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="7">
         <v>27</v>
       </c>
@@ -941,7 +941,7 @@
       </c>
       <c r="F12" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="7">
         <v>27</v>
       </c>
@@ -957,7 +957,7 @@
       </c>
       <c r="F13" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="7">
         <v>27</v>
       </c>
@@ -973,7 +973,7 @@
       </c>
       <c r="F14" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="7">
         <v>27</v>
       </c>
@@ -989,7 +989,7 @@
       </c>
       <c r="F15" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="7">
         <v>29</v>
       </c>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="F16" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="7">
         <v>42</v>
       </c>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="F17" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="7">
         <v>42</v>
       </c>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="F18" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="7">
         <v>66</v>
       </c>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="F19" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="7">
         <v>76</v>
       </c>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="F20" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="7">
         <v>137</v>
       </c>
@@ -1085,7 +1085,7 @@
       </c>
       <c r="F21" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="20.25">
       <c r="A22" s="7"/>
       <c r="B22" s="8" t="s">
         <v>31</v>
